--- a/quan.java/quan-core/config/excel/道具/道具.xlsx
+++ b/quan.java/quan-core/config/excel/道具/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\quan-core\config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843BD819-1656-4882-8C02-A1EF962EE115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145516E-A184-4A97-BF39-D5B246E08AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,135 @@
   <si>
     <t>2019-08-05 12:33:55</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具13</t>
+  </si>
+  <si>
+    <t>道具14</t>
+  </si>
+  <si>
+    <t>道具15</t>
+  </si>
+  <si>
+    <t>道具16</t>
+  </si>
+  <si>
+    <t>道具17</t>
+  </si>
+  <si>
+    <t>道具18</t>
+  </si>
+  <si>
+    <t>道具19</t>
+  </si>
+  <si>
+    <t>道具20</t>
+  </si>
+  <si>
+    <t>道具21</t>
+  </si>
+  <si>
+    <t>道具22</t>
+  </si>
+  <si>
+    <t>道具23</t>
+  </si>
+  <si>
+    <t>道具24</t>
+  </si>
+  <si>
+    <t>道具25</t>
+  </si>
+  <si>
+    <t>道具26</t>
+  </si>
+  <si>
+    <t>道具27</t>
+  </si>
+  <si>
+    <t>道具28</t>
+  </si>
+  <si>
+    <t>道具29</t>
+  </si>
+  <si>
+    <t>道具30</t>
+  </si>
+  <si>
+    <t>道具31</t>
+  </si>
+  <si>
+    <t>道具32</t>
+  </si>
+  <si>
+    <t>道具33</t>
+  </si>
+  <si>
+    <t>道具34</t>
+  </si>
+  <si>
+    <t>道具35</t>
+  </si>
+  <si>
+    <t>道具36</t>
+  </si>
+  <si>
+    <t>道具37</t>
+  </si>
+  <si>
+    <t>道具38</t>
+  </si>
+  <si>
+    <t>道具39</t>
+  </si>
+  <si>
+    <t>道具40</t>
+  </si>
+  <si>
+    <t>道具41</t>
+  </si>
+  <si>
+    <t>道具42</t>
+  </si>
+  <si>
+    <t>道具43</t>
+  </si>
+  <si>
+    <t>道具44</t>
+  </si>
+  <si>
+    <t>道具45</t>
+  </si>
+  <si>
+    <t>道具46</t>
+  </si>
+  <si>
+    <t>道具47</t>
+  </si>
+  <si>
+    <t>道具48</t>
+  </si>
+  <si>
+    <t>道具49</t>
+  </si>
+  <si>
+    <t>道具50</t>
+  </si>
+  <si>
+    <t>道具51</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1275,6 +1404,1476 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
